--- a/8/4/Pública Privada 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/Pública Privada 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7569,13 +7572,13 @@
         <v>83</v>
       </c>
       <c r="B74">
-        <v>210956</v>
+        <v>209510</v>
       </c>
       <c r="C74">
-        <v>66841</v>
+        <v>66867</v>
       </c>
       <c r="D74">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="E74">
         <v>1502</v>
@@ -7584,25 +7587,25 @@
         <v>4855</v>
       </c>
       <c r="G74">
-        <v>26727</v>
+        <v>26756</v>
       </c>
       <c r="H74">
-        <v>144115</v>
+        <v>142642</v>
       </c>
       <c r="I74">
-        <v>19909</v>
+        <v>19912</v>
       </c>
       <c r="J74">
-        <v>7045</v>
+        <v>6875</v>
       </c>
       <c r="K74">
-        <v>117162</v>
+        <v>115856</v>
       </c>
       <c r="L74">
-        <v>22863</v>
+        <v>23121</v>
       </c>
       <c r="M74">
-        <v>3553</v>
+        <v>3563</v>
       </c>
       <c r="N74">
         <v>280</v>
@@ -7614,10 +7617,10 @@
         <v>762</v>
       </c>
       <c r="Q74">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="R74">
-        <v>19309</v>
+        <v>19558</v>
       </c>
       <c r="S74">
         <v>7469</v>
@@ -7626,16 +7629,16 @@
         <v>155</v>
       </c>
       <c r="U74">
-        <v>11686</v>
+        <v>11935</v>
       </c>
       <c r="V74">
-        <v>188093</v>
+        <v>186389</v>
       </c>
       <c r="W74">
-        <v>63288</v>
+        <v>63305</v>
       </c>
       <c r="X74">
-        <v>33476</v>
+        <v>33474</v>
       </c>
       <c r="Y74">
         <v>1260</v>
@@ -7644,19 +7647,114 @@
         <v>4093</v>
       </c>
       <c r="AA74">
-        <v>24458</v>
+        <v>24477</v>
       </c>
       <c r="AB74">
-        <v>124805</v>
+        <v>123084</v>
       </c>
       <c r="AC74">
-        <v>12440</v>
+        <v>12443</v>
       </c>
       <c r="AD74">
-        <v>6890</v>
+        <v>6720</v>
       </c>
       <c r="AE74">
-        <v>105476</v>
+        <v>103921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>213283</v>
+      </c>
+      <c r="C75">
+        <v>70287</v>
+      </c>
+      <c r="D75">
+        <v>37860</v>
+      </c>
+      <c r="E75">
+        <v>1265</v>
+      </c>
+      <c r="F75">
+        <v>4616</v>
+      </c>
+      <c r="G75">
+        <v>26546</v>
+      </c>
+      <c r="H75">
+        <v>142996</v>
+      </c>
+      <c r="I75">
+        <v>19660</v>
+      </c>
+      <c r="J75">
+        <v>6850</v>
+      </c>
+      <c r="K75">
+        <v>116486</v>
+      </c>
+      <c r="L75">
+        <v>22318</v>
+      </c>
+      <c r="M75">
+        <v>2814</v>
+      </c>
+      <c r="N75">
+        <v>142</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>603</v>
+      </c>
+      <c r="Q75">
+        <v>2069</v>
+      </c>
+      <c r="R75">
+        <v>19504</v>
+      </c>
+      <c r="S75">
+        <v>7843</v>
+      </c>
+      <c r="T75">
+        <v>178</v>
+      </c>
+      <c r="U75">
+        <v>11482</v>
+      </c>
+      <c r="V75">
+        <v>190965</v>
+      </c>
+      <c r="W75">
+        <v>67473</v>
+      </c>
+      <c r="X75">
+        <v>37718</v>
+      </c>
+      <c r="Y75">
+        <v>1265</v>
+      </c>
+      <c r="Z75">
+        <v>4013</v>
+      </c>
+      <c r="AA75">
+        <v>24476</v>
+      </c>
+      <c r="AB75">
+        <v>123492</v>
+      </c>
+      <c r="AC75">
+        <v>11817</v>
+      </c>
+      <c r="AD75">
+        <v>6672</v>
+      </c>
+      <c r="AE75">
+        <v>105003</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Pública Privada 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/Pública Privada 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE75"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7757,6 +7760,101 @@
         <v>105003</v>
       </c>
     </row>
+    <row r="76" spans="1:31">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76">
+        <v>233155</v>
+      </c>
+      <c r="C76">
+        <v>80484</v>
+      </c>
+      <c r="D76">
+        <v>44254</v>
+      </c>
+      <c r="E76">
+        <v>3604</v>
+      </c>
+      <c r="F76">
+        <v>4546</v>
+      </c>
+      <c r="G76">
+        <v>28080</v>
+      </c>
+      <c r="H76">
+        <v>152671</v>
+      </c>
+      <c r="I76">
+        <v>22787</v>
+      </c>
+      <c r="J76">
+        <v>6709</v>
+      </c>
+      <c r="K76">
+        <v>123175</v>
+      </c>
+      <c r="L76">
+        <v>25402</v>
+      </c>
+      <c r="M76">
+        <v>2792</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>604</v>
+      </c>
+      <c r="Q76">
+        <v>2188</v>
+      </c>
+      <c r="R76">
+        <v>22610</v>
+      </c>
+      <c r="S76">
+        <v>9416</v>
+      </c>
+      <c r="T76">
+        <v>198</v>
+      </c>
+      <c r="U76">
+        <v>12996</v>
+      </c>
+      <c r="V76">
+        <v>207752</v>
+      </c>
+      <c r="W76">
+        <v>77691</v>
+      </c>
+      <c r="X76">
+        <v>44254</v>
+      </c>
+      <c r="Y76">
+        <v>3604</v>
+      </c>
+      <c r="Z76">
+        <v>3942</v>
+      </c>
+      <c r="AA76">
+        <v>25891</v>
+      </c>
+      <c r="AB76">
+        <v>130061</v>
+      </c>
+      <c r="AC76">
+        <v>13371</v>
+      </c>
+      <c r="AD76">
+        <v>6510</v>
+      </c>
+      <c r="AE76">
+        <v>110179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
